--- a/biology/Zoologie/Ctenosaura_pectinata/Ctenosaura_pectinata.xlsx
+++ b/biology/Zoologie/Ctenosaura_pectinata/Ctenosaura_pectinata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ctenosaura pectinata est une espèce de sauriens de la famille des Iguanidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ctenosaura pectinata est une espèce de sauriens de la famille des Iguanidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originellement endémique du Mexique[1]. Elle se rencontre du Sinaloa à l'Oaxaca.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originellement endémique du Mexique. Elle se rencontre du Sinaloa à l'Oaxaca.
 Elle a été introduite en Floride et au Texas aux États-Unis.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Wiegmann, 1834 : Herpetologia mexicana, seu Descriptio amphibiorum Novae Hispaniae quae itineribus comitis De Sack, Ferdinandi Deppe et Chr. Guil. Schiede in Museum zoologicum Berolinense pervenerunt. Pars prima saurorum species amplectens, adjecto systematis saurorum prodromo, additisque multis in hunc amphibiorum ordinem observationibus. Lüderitz, Berlin, p. 1-54 (texte intégral).</t>
         </is>
